--- a/medicine/Enfance/Jean_Le_Boël/Jean_Le_Boël.xlsx
+++ b/medicine/Enfance/Jean_Le_Boël/Jean_Le_Boël.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean_Le_Bo%C3%ABl</t>
+          <t>Jean_Le_Boël</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Le Boël est un éditeur, poète, romancier, nouvelliste et essayiste français né en 1948 à Boulogne-sur-Mer (France).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean_Le_Bo%C3%ABl</t>
+          <t>Jean_Le_Boël</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Pendant ses études en lettres classiques, il exerce divers métiers, y  compris dans la mécanique et le monitorat de voile. Actuellement directeur littéraire des éditions Henry, il a aussi enseigné le latin et l'ancien français à l'Université, entre autres[1],[2].
-Jean Le Boël est le secrétaire général actuel du PEN Club français[3],[4],[5],[6], ainsi que membre du conseil d'administration  de la Maison de Poésie – Fondation Émile Blémont , en tant que secrétaire général[7],[8].
-Il est le fondateur et directeur de la maison d'édition Henry située à Montreuil-sur-Mer (Pas-de-Calais)[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Pendant ses études en lettres classiques, il exerce divers métiers, y  compris dans la mécanique et le monitorat de voile. Actuellement directeur littéraire des éditions Henry, il a aussi enseigné le latin et l'ancien français à l'Université, entre autres,.
+Jean Le Boël est le secrétaire général actuel du PEN Club français ainsi que membre du conseil d'administration  de la Maison de Poésie – Fondation Émile Blémont , en tant que secrétaire général,.
+Il est le fondateur et directeur de la maison d'édition Henry située à Montreuil-sur-Mer (Pas-de-Calais).
 Animateur d'ateliers d'écriture dans le cadre de l’Éducation nationale et celui de l'Assistance Publique-Hôpitaux de Paris, couronnés par la publication d'ouvrages Regards croisés, Instants donnés, ainsi que pour Réseau Emploi Solidarité.
 Fondateur et directeur de publication de la revue Écrit(s) du Nord.
 Vice-président de la Maison de la Poésie du Nord/ Pas-de-Calais.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean_Le_Bo%C3%ABl</t>
+          <t>Jean_Le_Boël</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,10 +561,12 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2009 : obtention de la Bourse Poncetton de poésie 2009 décernée par la Société des gens de lettres pour son recueil de poèmes Le Paysage immobile[10].
-2020 : lauréat du Prix Mallarmé 2020 pour son recueil de poèmes jusqu'au jour[11],[12].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2009 : obtention de la Bourse Poncetton de poésie 2009 décernée par la Société des gens de lettres pour son recueil de poèmes Le Paysage immobile.
+2020 : lauréat du Prix Mallarmé 2020 pour son recueil de poèmes jusqu'au jour,.</t>
         </is>
       </c>
     </row>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jean_Le_Bo%C3%ABl</t>
+          <t>Jean_Le_Boël</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,19 +596,58 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recueil de poèmes
-Tessons : poèmes, Verton, Écrits du Nord, 1999, 56 p. (ISBN 9782912294098).
-Un homme, Verton (Pas de Calais), Écrits du Nord, 2001, 72 p. (ISBN 9782951484375)[13].
+          <t>Recueil de poèmes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tessons : poèmes, Verton, Écrits du Nord, 1999, 56 p. (ISBN 9782912294098).
+Un homme, Verton (Pas de Calais), Écrits du Nord, 2001, 72 p. (ISBN 9782951484375).
 À l'ombre du ciel  (ill. Jacques Dourlent), Montreuil-sur-Mer, Henry, 2002, 79 p. (ISBN 9782951580602).
 Lumière native  (préf. Patrice Deparpe, ill. Jacques Dourlent), Montreuil-sur-Mer, Henry (réimpr. 2009) (1re éd. 2202), 95 p. (ISBN 9782917698457).
 En ville  (ill. Isabelle Clément), Montreuil-sur-Mer, Henry, coll. « Les écrits du Nord », 2004, 69 p. (ISBN 9782901245148).
 Le paysage immobile, Montreuil-sur-Mer, Henry, DL, coll. « Les écrits du Nord », 2009, 77 p. (ISBN 9782917698198).
-Clôtures, Montreuil-sur-Mer, Henry, coll. « Les écrits du Nord », 2014, 72 p. (ISBN 9782364690790)[14].
-Et leurs bras frêles tordant le destin, Montreuil-sur-Mer, Éditions Henry, coll. « Ecrits du nord », 2017, 80 p. (ISBN 9782364691766)[15],[16],[17],[18].
+Clôtures, Montreuil-sur-Mer, Henry, coll. « Les écrits du Nord », 2014, 72 p. (ISBN 9782364690790).
+Et leurs bras frêles tordant le destin, Montreuil-sur-Mer, Éditions Henry, coll. « Ecrits du nord », 2017, 80 p. (ISBN 9782364691766).
 Pierres  (ill. Claire Audureau), Aubière, les Passerelles, coll. « Cahier des Passerelles, n° 46 », 2021, 18 p. (ISBN 9782369870586).
-jusqu'au jour, Montreuil-sur-Mer, Henry, 2020, 81 p. (ISBN 9782364692138)[19],[20],[21].
-Romans, nouvelles
-Les clefs de la mère Legris : en terre picarde au milieu des années cinquante ...  (ill. René Charles), Béthune (Pas-de-Calais), PPP, 1997, 26 p. (ISBN 9782912294005).
+jusqu'au jour, Montreuil-sur-Mer, Henry, 2020, 81 p. (ISBN 9782364692138).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean_Le_Boël</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Le_Bo%C3%ABl</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans, nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les clefs de la mère Legris : en terre picarde au milieu des années cinquante ...  (ill. René Charles), Béthune (Pas-de-Calais), PPP, 1997, 26 p. (ISBN 9782912294005).
 La Saison des Tempêtes : chronique provinciale de l'année 1970, Béthune (Pas-de-Calais), PPP, 1998,122 p.  (ISBN 9782912294067)
 Paroles perdues : nouvelles, Montreuil-sur-Mer, Henry, 2002, 143 p. (ISBN 9782901245025).
 Les matineux, Montreuil-sur-Mer, Henry, coll. « Les écrits du Nord », 2003, 96 p. (ISBN 9782901245070).
@@ -602,21 +657,157 @@
 Margats de Saint-Pierre : histoires d'après-guerre, Montreuil-sur-Mer, Henry, 2007, 116 p. (ISBN 9782901245704).
 Dire encore, Douai, Les Éd. du Douayeul, coll. « Petits carnets précieux : série 2008 », 2008, 18 p. (ISBN 9782351330241).
 Fragments d'une autobiographie fictive : la mort de Louis XVI, Montreuil-sur-Mer, Henry, coll. « La vie comme elle va », 2009, 118 p. (ISBN 9782917698334).
-Là où leur chair s'est usée, Montreuil-sur-Me, Henry, coll. « Les écrits du Nord », 2012, 97 p. (ISBN 9782364690240)[22].
-La mère patrie : fragments d'une autobiographie fictive, Montreuil-sur-Mer, Henry, coll. « La vie comme elle va », 2015, 107 p. (ISBN 9782364691032).
-Essais
-Instants donnés : partager l'hôpital, Paris, Assistance publique-Hôpitaux de Paris, 2002, 76 p. (ISBN 9782914646024),
+Là où leur chair s'est usée, Montreuil-sur-Me, Henry, coll. « Les écrits du Nord », 2012, 97 p. (ISBN 9782364690240).
+La mère patrie : fragments d'une autobiographie fictive, Montreuil-sur-Mer, Henry, coll. « La vie comme elle va », 2015, 107 p. (ISBN 9782364691032).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean_Le_Boël</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Le_Bo%C3%ABl</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Instants donnés : partager l'hôpital, Paris, Assistance publique-Hôpitaux de Paris, 2002, 76 p. (ISBN 9782914646024),
 Le sourire innombrable des mots, Montreuil-sur-Mer, Henry, DL, coll. « Les écrits du Nord », 2006, 311 p. (ISBN 9782901245537).
-Une passante : une lecture de "La ramasseuse d'épaves", 1880, de Francis Tattegrain, Ennetières-en-Weppes, Invenit, coll. « Ekphrasis. », 2010, 28 p. (ISBN 9782918698029).
-Anthologies
-Cahier d'arts et de littératures Chiendents, no 45, La parole Fraternelle.
-Sylvestre Clancier (dir.) (préf. Sylvestre Clancier), La poésie française 100 ans après Apollinaire : kaléidoscope 50 poètes - 50 styles, La Maison de Poésie, Fondation Émile Blémont, 2018 (ISBN 9782358600392).
-Littérature pour la jeunesse
-Laetitia Wallois &amp;  Jean Le Boël; (ill. Jean-Michel Delambre), Louise et Gabriel se font un sang d'encre, Montreuil-sur-Mer, Henry, coll. « Scientifictions », 2008, 24 p. (ISBN 9782917698037).
+Une passante : une lecture de "La ramasseuse d'épaves", 1880, de Francis Tattegrain, Ennetières-en-Weppes, Invenit, coll. « Ekphrasis. », 2010, 28 p. (ISBN 9782918698029).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jean_Le_Boël</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Le_Bo%C3%ABl</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Anthologies</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Cahier d'arts et de littératures Chiendents, no 45, La parole Fraternelle.
+Sylvestre Clancier (dir.) (préf. Sylvestre Clancier), La poésie française 100 ans après Apollinaire : kaléidoscope 50 poètes - 50 styles, La Maison de Poésie, Fondation Émile Blémont, 2018 (ISBN 9782358600392).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jean_Le_Boël</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Le_Bo%C3%ABl</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Littérature pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Laetitia Wallois &amp;  Jean Le Boël; (ill. Jean-Michel Delambre), Louise et Gabriel se font un sang d'encre, Montreuil-sur-Mer, Henry, coll. « Scientifictions », 2008, 24 p. (ISBN 9782917698037).
 Sylvain Boulonnais &amp; Jean Le Boël (ill. Jean-Michel Delambre), Louise et Gabriel s'y collent !, Montreuil-sur-Mer, Henry, coll. « Scientifictions », 2008, 23 p. (ISBN 9782917698044).
-Mildred Gressier &amp; Jean Le Boël (ill. Jean-Michel Delambre), Louise et Gabriel ne veulent pas se casser la tête, Montreuil-sur-Mer, Henry, septembre 2008, 24 p. (ISBN 9782917698051)
-Revues (participation)
-Aujourd'hui POÈME, Bacchanales, Décharge, Écrit(s) du Nord, La  Passe, Le feuilleton de la SGDLF, Le foudulire, Les Archers, Lieux d'être, Plein-Chant, Terre de Femmes, Texture... Pour l'Italie, Nuovo Contrappunto et Issimo.
+Mildred Gressier &amp; Jean Le Boël (ill. Jean-Michel Delambre), Louise et Gabriel ne veulent pas se casser la tête, Montreuil-sur-Mer, Henry, septembre 2008, 24 p. (ISBN 9782917698051)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jean_Le_Boël</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Le_Bo%C3%ABl</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Revues (participation)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aujourd'hui POÈME, Bacchanales, Décharge, Écrit(s) du Nord, La  Passe, Le feuilleton de la SGDLF, Le foudulire, Les Archers, Lieux d'être, Plein-Chant, Terre de Femmes, Texture... Pour l'Italie, Nuovo Contrappunto et Issimo.
 </t>
         </is>
       </c>
